--- a/output/3Y_P59_KFSDIV.xlsx
+++ b/output/3Y_P59_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.716</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4613</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.6545</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2345</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.1636</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>11.8145</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>11.2352</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>10.8241</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>11.2543</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10.5675</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>9.967000000000001</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>10.0064</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>10.0129</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10.4583</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>10.3341</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9.884600000000001</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>9.967499999999999</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>10.4908</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>10.6308</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>10.3176</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10.2392</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>9.978999999999999</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>10.1873</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.4058</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.716</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4613</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.6545</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2345</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.1636</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>11.8145</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>11.2352</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>10.8241</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>11.2543</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10.5675</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>9.967000000000001</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>10.0064</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>10.0129</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10.4583</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>10.3341</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9.884600000000001</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>9.967499999999999</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>10.4908</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>10.6308</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>10.3176</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10.2392</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>9.978999999999999</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>10.1873</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.4058</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.716</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4613</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.6545</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2345</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.1636</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>11.8145</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>11.2352</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>10.8241</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>11.2543</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10.5675</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>9.967000000000001</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>10.0064</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>10.0129</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10.4583</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>10.3341</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9.884600000000001</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>9.967499999999999</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>10.4908</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>10.6308</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>10.3176</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10.2392</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>9.978999999999999</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>10.1873</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.4058</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.716</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4613</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.6545</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2345</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.1636</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>11.8145</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>11.2352</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>10.8241</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>11.2543</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10.5675</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>9.967000000000001</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>10.0064</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>10.0129</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10.4583</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>10.3341</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9.884600000000001</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>9.967499999999999</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>10.4908</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>10.6308</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>10.3176</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10.2392</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>9.978999999999999</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>10.1873</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.4058</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.9583</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2036</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9136</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.4338</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9657</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3568</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2487</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3991</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5985</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.6955</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3398</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.8469</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.129</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.716</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4613</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.6545</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2345</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.1636</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>11.8145</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>11.2352</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>10.8241</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>11.2543</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10.5675</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>9.967000000000001</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>10.0064</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>10.0129</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10.4583</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>10.3341</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9.884600000000001</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>9.967499999999999</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>10.4908</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>10.6308</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>10.3176</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10.2392</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>9.978999999999999</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>10.1873</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.4058</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11166,6 +11169,26 @@
         <v>45755.7313</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9099</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9089</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.907</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9067</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
